--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value278.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value278.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.6392967518518374</v>
+        <v>1.471327662467957</v>
       </c>
       <c r="B1">
-        <v>1.276254739316211</v>
+        <v>1.583739995956421</v>
       </c>
       <c r="C1">
-        <v>2.483051011537668</v>
+        <v>1.776378273963928</v>
       </c>
       <c r="D1">
-        <v>2.833206020355016</v>
+        <v>2.732922315597534</v>
       </c>
       <c r="E1">
-        <v>1.637213586153123</v>
+        <v>3.515083312988281</v>
       </c>
     </row>
   </sheetData>
